--- a/tweets_Nintendo_201809042125.xlsx
+++ b/tweets_Nintendo_201809042125.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Enrico Aloisi Nardi\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Enrico Aloisi Nardi\Desktop\Insper\SEGUNDO semestre\Ciência dos Dados\PROJETO 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{0B4DB7E9-B065-400A-A923-857B81714D14}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{C6D102DC-6D4C-49F1-AAC7-CC10E1E235B8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="21600" windowHeight="9510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="21600" windowHeight="9510" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1037" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1387" uniqueCount="453">
   <si>
     <t>Treinamento</t>
   </si>
@@ -1521,7 +1521,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1531,6 +1531,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1573,7 +1581,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1584,6 +1592,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1924,8 +1933,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A269" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B296" sqref="B296"/>
+    <sheetView topLeftCell="A153" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A203" sqref="A203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1991,10 +2000,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -2035,10 +2041,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -2046,10 +2049,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -2323,10 +2323,7 @@
         <v>34</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -2345,10 +2342,7 @@
         <v>36</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -2367,10 +2361,7 @@
         <v>38</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -2378,10 +2369,7 @@
         <v>39</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -2474,10 +2462,7 @@
         <v>45</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -2608,10 +2593,7 @@
         <v>57</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -2682,10 +2664,7 @@
         <v>64</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -2715,10 +2694,7 @@
         <v>67</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -2726,10 +2702,7 @@
         <v>68</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -3458,10 +3431,7 @@
         <v>133</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="C144" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
@@ -3491,7 +3461,7 @@
         <v>134</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>449</v>
@@ -4065,7 +4035,10 @@
         <v>23</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>450</v>
+        <v>448</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
@@ -4218,7 +4191,10 @@
         <v>23</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>450</v>
+        <v>448</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
@@ -4302,7 +4278,10 @@
         <v>207</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>450</v>
+        <v>448</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
@@ -4310,7 +4289,10 @@
         <v>208</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>450</v>
+        <v>448</v>
+      </c>
+      <c r="C228" s="2" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
@@ -4318,7 +4300,10 @@
         <v>209</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>450</v>
+        <v>448</v>
+      </c>
+      <c r="C229" s="2" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
@@ -4389,7 +4374,10 @@
         <v>216</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>450</v>
+        <v>448</v>
+      </c>
+      <c r="C236" s="2" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
@@ -4596,7 +4584,10 @@
         <v>235</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>450</v>
+        <v>448</v>
+      </c>
+      <c r="C257" s="2" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
@@ -4760,7 +4751,10 @@
         <v>249</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>450</v>
+        <v>448</v>
+      </c>
+      <c r="C273" s="2" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
@@ -4842,7 +4836,10 @@
         <v>23</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>450</v>
+        <v>448</v>
+      </c>
+      <c r="C281" s="2" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
@@ -4880,7 +4877,10 @@
         <v>258</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>450</v>
+        <v>448</v>
+      </c>
+      <c r="C285" s="2" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
@@ -4992,7 +4992,10 @@
         <v>267</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>450</v>
+        <v>448</v>
+      </c>
+      <c r="C296" s="2" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
@@ -5051,1018 +5054,2082 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:A201"/>
+  <dimension ref="A1:C201"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A140" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C157" sqref="C157"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="182.7109375" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>448</v>
+      </c>
+      <c r="C4" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>448</v>
+      </c>
+      <c r="C5" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>448</v>
+      </c>
+      <c r="C6" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>448</v>
+      </c>
+      <c r="C7" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>448</v>
+      </c>
+      <c r="C8" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>448</v>
+      </c>
+      <c r="C9" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>448</v>
+      </c>
+      <c r="C10" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>448</v>
+      </c>
+      <c r="C11" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>448</v>
+      </c>
+      <c r="C12" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>448</v>
+      </c>
+      <c r="C13" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>448</v>
+      </c>
+      <c r="C14" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>448</v>
+      </c>
+      <c r="C15" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>448</v>
+      </c>
+      <c r="C16" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>448</v>
+      </c>
+      <c r="C17" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>448</v>
+      </c>
+      <c r="C18" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>448</v>
+      </c>
+      <c r="C19" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>448</v>
+      </c>
+      <c r="C21" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>448</v>
+      </c>
+      <c r="C22" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>448</v>
+      </c>
+      <c r="C23" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>448</v>
+      </c>
+      <c r="C24" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>448</v>
+      </c>
+      <c r="C25" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>448</v>
+      </c>
+      <c r="C28" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>448</v>
+      </c>
+      <c r="C29" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>448</v>
+      </c>
+      <c r="C30" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>448</v>
+      </c>
+      <c r="C32" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>448</v>
+      </c>
+      <c r="C33" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>448</v>
+      </c>
+      <c r="C34" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>448</v>
+      </c>
+      <c r="C35" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>448</v>
+      </c>
+      <c r="C39" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>448</v>
+      </c>
+      <c r="C41" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>448</v>
+      </c>
+      <c r="C42" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>448</v>
+      </c>
+      <c r="C43" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>448</v>
+      </c>
+      <c r="C44" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>448</v>
+      </c>
+      <c r="C45" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>448</v>
+      </c>
+      <c r="C46" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>448</v>
+      </c>
+      <c r="C50" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>448</v>
+      </c>
+      <c r="C51" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>448</v>
+      </c>
+      <c r="C52" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>448</v>
+      </c>
+      <c r="C54" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>448</v>
+      </c>
+      <c r="C55" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>448</v>
+      </c>
+      <c r="C56" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>448</v>
+      </c>
+      <c r="C57" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>448</v>
+      </c>
+      <c r="C58" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>448</v>
+      </c>
+      <c r="C59" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>448</v>
+      </c>
+      <c r="C60" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>448</v>
+      </c>
+      <c r="C61" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>448</v>
+      </c>
+      <c r="C63" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>448</v>
+      </c>
+      <c r="C65" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>448</v>
+      </c>
+      <c r="C66" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>448</v>
+      </c>
+      <c r="C67" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>448</v>
+      </c>
+      <c r="C68" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>448</v>
+      </c>
+      <c r="C69" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>448</v>
+      </c>
+      <c r="C70" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>448</v>
+      </c>
+      <c r="C72" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>448</v>
+      </c>
+      <c r="C73" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>448</v>
+      </c>
+      <c r="C75" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>448</v>
+      </c>
+      <c r="C77" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>448</v>
+      </c>
+      <c r="C78" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
+        <v>448</v>
+      </c>
+      <c r="C79" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
+        <v>448</v>
+      </c>
+      <c r="C80" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
+        <v>448</v>
+      </c>
+      <c r="C81" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
+      <c r="B82" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="4" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
+        <v>448</v>
+      </c>
+      <c r="C83" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
+        <v>448</v>
+      </c>
+      <c r="C84" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
+        <v>448</v>
+      </c>
+      <c r="C85" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B86" t="s">
+        <v>448</v>
+      </c>
+      <c r="C86" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
+        <v>448</v>
+      </c>
+      <c r="C87" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B88" t="s">
+        <v>448</v>
+      </c>
+      <c r="C88" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B89" t="s">
+        <v>448</v>
+      </c>
+      <c r="C89" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B90" t="s">
+        <v>448</v>
+      </c>
+      <c r="C90" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B91" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B92" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B93" t="s">
+        <v>448</v>
+      </c>
+      <c r="C93" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B94" t="s">
+        <v>448</v>
+      </c>
+      <c r="C94" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B95" t="s">
+        <v>448</v>
+      </c>
+      <c r="C95" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B96" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B97" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B98" t="s">
+        <v>448</v>
+      </c>
+      <c r="C98" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B99" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B100" t="s">
+        <v>448</v>
+      </c>
+      <c r="C100" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B101" t="s">
+        <v>448</v>
+      </c>
+      <c r="C101" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B102" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B103" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B104" t="s">
+        <v>448</v>
+      </c>
+      <c r="C104" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B105" t="s">
+        <v>448</v>
+      </c>
+      <c r="C105" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B106" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B107" t="s">
+        <v>448</v>
+      </c>
+      <c r="C107" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B108" t="s">
+        <v>448</v>
+      </c>
+      <c r="C108" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B109" t="s">
+        <v>448</v>
+      </c>
+      <c r="C109" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B110" t="s">
+        <v>448</v>
+      </c>
+      <c r="C110" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B111" t="s">
+        <v>448</v>
+      </c>
+      <c r="C111" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B112" t="s">
+        <v>448</v>
+      </c>
+      <c r="C112" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B113" t="s">
+        <v>448</v>
+      </c>
+      <c r="C113" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B114" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B115" t="s">
+        <v>448</v>
+      </c>
+      <c r="C115" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B116" t="s">
+        <v>448</v>
+      </c>
+      <c r="C116" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B117" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B118" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B119" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B120" t="s">
+        <v>448</v>
+      </c>
+      <c r="C120" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B121" t="s">
+        <v>448</v>
+      </c>
+      <c r="C121" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B122" t="s">
+        <v>448</v>
+      </c>
+      <c r="C122" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B123" t="s">
+        <v>448</v>
+      </c>
+      <c r="C123" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B124" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B125" t="s">
+        <v>448</v>
+      </c>
+      <c r="C125" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B126" t="s">
+        <v>448</v>
+      </c>
+      <c r="C126" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B127" t="s">
+        <v>448</v>
+      </c>
+      <c r="C127" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B128" t="s">
+        <v>448</v>
+      </c>
+      <c r="C128" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B129" t="s">
+        <v>448</v>
+      </c>
+      <c r="C129" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B130" t="s">
+        <v>448</v>
+      </c>
+      <c r="C130" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B131" t="s">
+        <v>448</v>
+      </c>
+      <c r="C131" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B132" t="s">
+        <v>448</v>
+      </c>
+      <c r="C132" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B133" t="s">
+        <v>448</v>
+      </c>
+      <c r="C133" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B134" t="s">
+        <v>448</v>
+      </c>
+      <c r="C134" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B135" t="s">
+        <v>448</v>
+      </c>
+      <c r="C135" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B136" t="s">
+        <v>448</v>
+      </c>
+      <c r="C136" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B137" t="s">
+        <v>448</v>
+      </c>
+      <c r="C137" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B138" t="s">
+        <v>448</v>
+      </c>
+      <c r="C138" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B139" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B140" t="s">
+        <v>448</v>
+      </c>
+      <c r="C140" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B141" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B142" t="s">
+        <v>448</v>
+      </c>
+      <c r="C142" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B143" t="s">
+        <v>448</v>
+      </c>
+      <c r="C143" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B144" t="s">
+        <v>448</v>
+      </c>
+      <c r="C144" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B145" t="s">
+        <v>448</v>
+      </c>
+      <c r="C145" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B146" t="s">
+        <v>448</v>
+      </c>
+      <c r="C146" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B147" t="s">
+        <v>448</v>
+      </c>
+      <c r="C147" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B148" t="s">
+        <v>448</v>
+      </c>
+      <c r="C148" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B149" t="s">
+        <v>448</v>
+      </c>
+      <c r="C149" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B150" t="s">
+        <v>448</v>
+      </c>
+      <c r="C150" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B151" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B152" t="s">
+        <v>448</v>
+      </c>
+      <c r="C152" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B153" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B154" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B155" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B156" t="s">
+        <v>448</v>
+      </c>
+      <c r="C156" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B157" t="s">
+        <v>448</v>
+      </c>
+      <c r="C157" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B158" t="s">
+        <v>448</v>
+      </c>
+      <c r="C158" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B159" t="s">
+        <v>448</v>
+      </c>
+      <c r="C159" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B160" t="s">
+        <v>448</v>
+      </c>
+      <c r="C160" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B161" t="s">
+        <v>448</v>
+      </c>
+      <c r="C161" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B162" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B163" t="s">
+        <v>448</v>
+      </c>
+      <c r="C163" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B164" t="s">
+        <v>448</v>
+      </c>
+      <c r="C164" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B165" t="s">
+        <v>448</v>
+      </c>
+      <c r="C165" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B166" t="s">
+        <v>448</v>
+      </c>
+      <c r="C166" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B167" t="s">
+        <v>448</v>
+      </c>
+      <c r="C167" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B168" t="s">
+        <v>448</v>
+      </c>
+      <c r="C168" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B169" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B170" t="s">
+        <v>448</v>
+      </c>
+      <c r="C170" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B171" t="s">
+        <v>448</v>
+      </c>
+      <c r="C171" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B172" t="s">
+        <v>448</v>
+      </c>
+      <c r="C172" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B173" t="s">
+        <v>448</v>
+      </c>
+      <c r="C173" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B174" t="s">
+        <v>448</v>
+      </c>
+      <c r="C174" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B175" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B176" t="s">
+        <v>448</v>
+      </c>
+      <c r="C176" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B177" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B178" t="s">
+        <v>448</v>
+      </c>
+      <c r="C178" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B179" t="s">
+        <v>448</v>
+      </c>
+      <c r="C179" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B180" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B181" t="s">
+        <v>448</v>
+      </c>
+      <c r="C181" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B182" t="s">
+        <v>448</v>
+      </c>
+      <c r="C182" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B183" t="s">
+        <v>448</v>
+      </c>
+      <c r="C183" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B184" t="s">
+        <v>448</v>
+      </c>
+      <c r="C184" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B185" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B186" t="s">
+        <v>448</v>
+      </c>
+      <c r="C186" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B187" t="s">
+        <v>448</v>
+      </c>
+      <c r="C187" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B188" t="s">
+        <v>448</v>
+      </c>
+      <c r="C188" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B189" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B190" t="s">
+        <v>448</v>
+      </c>
+      <c r="C190" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B191" t="s">
+        <v>448</v>
+      </c>
+      <c r="C191" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B192" t="s">
+        <v>448</v>
+      </c>
+      <c r="C192" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B193" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B194" t="s">
+        <v>448</v>
+      </c>
+      <c r="C194" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B195" t="s">
+        <v>448</v>
+      </c>
+      <c r="C195" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B196" t="s">
+        <v>448</v>
+      </c>
+      <c r="C196" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B197" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B198" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B199" t="s">
+        <v>448</v>
+      </c>
+      <c r="C199" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B200" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>446</v>
       </c>
+      <c r="B201" t="s">
+        <v>448</v>
+      </c>
+      <c r="C201" t="s">
+        <v>451</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/tweets_Nintendo_201809042125.xlsx
+++ b/tweets_Nintendo_201809042125.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20325"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Enrico Aloisi Nardi\Desktop\Insper\SEGUNDO semestre\Ciência dos Dados\PROJETO 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jadson\Desktop\Insper\Ciência dos dados\Projeto2CDD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{C6D102DC-6D4C-49F1-AAC7-CC10E1E235B8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25AC170A-92CD-409D-AC8F-E9314F1D8203}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="21600" windowHeight="9510" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="21600" windowHeight="9510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1387" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1389" uniqueCount="455">
   <si>
     <t>Treinamento</t>
   </si>
@@ -1515,6 +1515,12 @@
   </si>
   <si>
     <t>Classificação (B M)</t>
+  </si>
+  <si>
+    <t>Classificação Final</t>
+  </si>
+  <si>
+    <t>Classificação Sub (MR, R, N, I, MI)</t>
   </si>
 </sst>
 </file>
@@ -1931,19 +1937,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C301"/>
+  <dimension ref="A1:D301"/>
   <sheetViews>
-    <sheetView topLeftCell="A153" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A203" sqref="A203"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="192.28515625" customWidth="1"/>
+    <col min="1" max="1" width="52.28515625" customWidth="1"/>
     <col min="2" max="3" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1953,8 +1960,11 @@
       <c r="C1" s="2" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1965,7 +1975,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1976,7 +1986,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1987,7 +1997,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1995,7 +2005,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -2003,7 +2013,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -2014,7 +2024,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -2025,7 +2035,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -2036,7 +2046,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -2044,7 +2054,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -2052,7 +2062,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -2063,7 +2073,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -2074,7 +2084,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -2085,7 +2095,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -2096,7 +2106,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -2506,7 +2516,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>50</v>
       </c>
@@ -5054,20 +5064,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C201"/>
+  <dimension ref="A1:D201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A140" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C157" sqref="C157"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="182.7109375" customWidth="1"/>
+    <col min="1" max="1" width="90.42578125" customWidth="1"/>
     <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>272</v>
       </c>
@@ -5077,8 +5088,11 @@
       <c r="C1" s="2" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>273</v>
       </c>
@@ -5086,7 +5100,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>274</v>
       </c>
@@ -5094,7 +5108,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>275</v>
       </c>
@@ -5105,7 +5119,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>276</v>
       </c>
@@ -5116,7 +5130,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>277</v>
       </c>
@@ -5127,7 +5141,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>278</v>
       </c>
@@ -5138,7 +5152,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>279</v>
       </c>
@@ -5149,7 +5163,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>280</v>
       </c>
@@ -5160,7 +5174,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>281</v>
       </c>
@@ -5171,7 +5185,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>282</v>
       </c>
@@ -5182,7 +5196,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>283</v>
       </c>
@@ -5193,7 +5207,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>284</v>
       </c>
@@ -5204,7 +5218,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>285</v>
       </c>
@@ -5215,7 +5229,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>286</v>
       </c>
@@ -5226,7 +5240,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>287</v>
       </c>

--- a/tweets_Nintendo_201809042125.xlsx
+++ b/tweets_Nintendo_201809042125.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jadson\Desktop\Insper\Ciência dos dados\Projeto2CDD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25AC170A-92CD-409D-AC8F-E9314F1D8203}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F032B52B-F174-4B63-924F-24DA3E064F2F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="600" windowWidth="21600" windowHeight="9510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1389" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1689" uniqueCount="457">
   <si>
     <t>Treinamento</t>
   </si>
@@ -1517,10 +1517,16 @@
     <t>Classificação (B M)</t>
   </si>
   <si>
-    <t>Classificação Final</t>
-  </si>
-  <si>
-    <t>Classificação Sub (MR, R, N, I, MI)</t>
+    <t>MR</t>
+  </si>
+  <si>
+    <t>MI</t>
+  </si>
+  <si>
+    <t>Classificação por Subtopicos (MR, R, N, I, MI)</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -1939,15 +1945,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D301"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A279" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D292" sqref="D292"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="52.28515625" customWidth="1"/>
     <col min="2" max="3" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1961,7 +1967,7 @@
         <v>452</v>
       </c>
       <c r="D1" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1974,6 +1980,9 @@
       <c r="C2" s="2" t="s">
         <v>451</v>
       </c>
+      <c r="D2" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -1985,6 +1994,9 @@
       <c r="C3" s="2" t="s">
         <v>449</v>
       </c>
+      <c r="D3" t="s">
+        <v>456</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1996,6 +2008,9 @@
       <c r="C4" s="2" t="s">
         <v>451</v>
       </c>
+      <c r="D4" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -2004,6 +2019,9 @@
       <c r="B5" s="2" t="s">
         <v>450</v>
       </c>
+      <c r="D5" t="s">
+        <v>450</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -2012,6 +2030,9 @@
       <c r="B6" s="2" t="s">
         <v>450</v>
       </c>
+      <c r="D6" t="s">
+        <v>450</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -2023,6 +2044,9 @@
       <c r="C7" s="2" t="s">
         <v>451</v>
       </c>
+      <c r="D7" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -2034,6 +2058,9 @@
       <c r="C8" s="2" t="s">
         <v>451</v>
       </c>
+      <c r="D8" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -2045,6 +2072,9 @@
       <c r="C9" s="2" t="s">
         <v>449</v>
       </c>
+      <c r="D9" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -2053,6 +2083,9 @@
       <c r="B10" s="2" t="s">
         <v>450</v>
       </c>
+      <c r="D10" t="s">
+        <v>454</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -2061,6 +2094,9 @@
       <c r="B11" s="2" t="s">
         <v>450</v>
       </c>
+      <c r="D11" t="s">
+        <v>454</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -2072,6 +2108,9 @@
       <c r="C12" s="2" t="s">
         <v>451</v>
       </c>
+      <c r="D12" t="s">
+        <v>456</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -2083,6 +2122,9 @@
       <c r="C13" s="2" t="s">
         <v>449</v>
       </c>
+      <c r="D13" t="s">
+        <v>453</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -2094,6 +2136,9 @@
       <c r="C14" s="2" t="s">
         <v>451</v>
       </c>
+      <c r="D14" t="s">
+        <v>456</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -2105,6 +2150,9 @@
       <c r="C15" s="2" t="s">
         <v>451</v>
       </c>
+      <c r="D15" t="s">
+        <v>453</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -2116,8 +2164,11 @@
       <c r="C16" s="2" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -2127,8 +2178,11 @@
       <c r="C17" s="2" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -2138,8 +2192,11 @@
       <c r="C18" s="2" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -2149,8 +2206,11 @@
       <c r="C19" s="2" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -2160,8 +2220,11 @@
       <c r="C20" s="2" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -2171,16 +2234,22 @@
       <c r="C21" s="2" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -2190,8 +2259,11 @@
       <c r="C23" s="2" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -2201,16 +2273,22 @@
       <c r="C24" s="2" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -2220,8 +2298,11 @@
       <c r="C26" s="2" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -2231,8 +2312,11 @@
       <c r="C27" s="2" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -2242,8 +2326,11 @@
       <c r="C28" s="2" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -2253,8 +2340,11 @@
       <c r="C29" s="2" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -2264,8 +2354,11 @@
       <c r="C30" s="2" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -2275,8 +2368,11 @@
       <c r="C31" s="2" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -2286,8 +2382,11 @@
       <c r="C32" s="2" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>25</v>
       </c>
@@ -2297,16 +2396,22 @@
       <c r="C33" s="2" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>32</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D34" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>15</v>
       </c>
@@ -2316,8 +2421,11 @@
       <c r="C35" s="2" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D35" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>33</v>
       </c>
@@ -2327,16 +2435,22 @@
       <c r="C36" s="2" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D36" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>34</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D37" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>35</v>
       </c>
@@ -2346,16 +2460,22 @@
       <c r="C38" s="2" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D38" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>36</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D39" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>37</v>
       </c>
@@ -2365,24 +2485,33 @@
       <c r="C40" s="2" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D40" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>38</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D41" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>39</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D42" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>25</v>
       </c>
@@ -2392,8 +2521,11 @@
       <c r="C43" s="2" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D43" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>25</v>
       </c>
@@ -2403,8 +2535,11 @@
       <c r="C44" s="2" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D44" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>40</v>
       </c>
@@ -2414,8 +2549,11 @@
       <c r="C45" s="2" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D45" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>41</v>
       </c>
@@ -2425,8 +2563,11 @@
       <c r="C46" s="2" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D46" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>42</v>
       </c>
@@ -2436,8 +2577,11 @@
       <c r="C47" s="2" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D47" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>43</v>
       </c>
@@ -2447,16 +2591,22 @@
       <c r="C48" s="2" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D48" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>44</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D49" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>25</v>
       </c>
@@ -2466,16 +2616,22 @@
       <c r="C50" s="2" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D50" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>45</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D51" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>46</v>
       </c>
@@ -2485,8 +2641,11 @@
       <c r="C52" s="2" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D52" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>47</v>
       </c>
@@ -2496,8 +2655,11 @@
       <c r="C53" s="2" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D53" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>48</v>
       </c>
@@ -2507,16 +2669,22 @@
       <c r="C54" s="2" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D54" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>49</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="D55" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>50</v>
       </c>
@@ -2526,16 +2694,22 @@
       <c r="C56" s="2" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D56" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>51</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D57" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>52</v>
       </c>
@@ -2545,8 +2719,11 @@
       <c r="C58" s="2" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D58" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>53</v>
       </c>
@@ -2556,8 +2733,11 @@
       <c r="C59" s="2" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D59" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>54</v>
       </c>
@@ -2567,8 +2747,11 @@
       <c r="C60" s="2" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D60" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>55</v>
       </c>
@@ -2578,8 +2761,11 @@
       <c r="C61" s="2" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D61" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>56</v>
       </c>
@@ -2589,24 +2775,33 @@
       <c r="C62" s="2" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+      <c r="D62" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D63" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>57</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D64" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>58</v>
       </c>
@@ -2616,8 +2811,11 @@
       <c r="C65" s="2" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D65" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>59</v>
       </c>
@@ -2627,16 +2825,22 @@
       <c r="C66" s="2" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D66" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>60</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D67" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>61</v>
       </c>
@@ -2646,8 +2850,11 @@
       <c r="C68" s="2" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D68" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>62</v>
       </c>
@@ -2657,8 +2864,11 @@
       <c r="C69" s="2" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D69" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>63</v>
       </c>
@@ -2668,16 +2878,22 @@
       <c r="C70" s="2" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D70" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>64</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D71" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>65</v>
       </c>
@@ -2687,8 +2903,11 @@
       <c r="C72" s="2" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D72" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>66</v>
       </c>
@@ -2698,24 +2917,33 @@
       <c r="C73" s="2" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D73" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>67</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D74" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>68</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D75" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>69</v>
       </c>
@@ -2725,8 +2953,11 @@
       <c r="C76" s="2" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D76" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>70</v>
       </c>
@@ -2736,16 +2967,22 @@
       <c r="C77" s="2" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D77" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>71</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D78" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>72</v>
       </c>
@@ -2755,8 +2992,11 @@
       <c r="C79" s="2" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D79" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>73</v>
       </c>
@@ -2766,8 +3006,11 @@
       <c r="C80" s="2" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D80" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>74</v>
       </c>
@@ -2777,8 +3020,11 @@
       <c r="C81" s="2" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D81" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>75</v>
       </c>
@@ -2788,16 +3034,22 @@
       <c r="C82" s="2" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D82" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>76</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D83" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>77</v>
       </c>
@@ -2807,8 +3059,11 @@
       <c r="C84" s="2" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D84" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>78</v>
       </c>
@@ -2818,8 +3073,11 @@
       <c r="C85" s="2" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D85" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>79</v>
       </c>
@@ -2829,8 +3087,11 @@
       <c r="C86" s="2" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D86" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>80</v>
       </c>
@@ -2840,16 +3101,22 @@
       <c r="C87" s="2" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D87" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>81</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D88" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>82</v>
       </c>
@@ -2859,8 +3126,11 @@
       <c r="C89" s="2" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D89" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>83</v>
       </c>
@@ -2870,8 +3140,11 @@
       <c r="C90" s="2" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D90" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>84</v>
       </c>
@@ -2881,8 +3154,11 @@
       <c r="C91" s="2" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D91" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>85</v>
       </c>
@@ -2892,8 +3168,11 @@
       <c r="C92" s="2" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D92" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>86</v>
       </c>
@@ -2903,8 +3182,11 @@
       <c r="C93" s="2" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D93" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>87</v>
       </c>
@@ -2914,8 +3196,11 @@
       <c r="C94" s="2" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D94" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>25</v>
       </c>
@@ -2925,8 +3210,11 @@
       <c r="C95" s="2" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D95" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>88</v>
       </c>
@@ -2936,8 +3224,11 @@
       <c r="C96" s="2" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D96" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>89</v>
       </c>
@@ -2947,8 +3238,11 @@
       <c r="C97" s="2" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D97" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>90</v>
       </c>
@@ -2958,8 +3252,11 @@
       <c r="C98" s="2" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D98" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>91</v>
       </c>
@@ -2969,8 +3266,11 @@
       <c r="C99" s="2" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D99" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>92</v>
       </c>
@@ -2980,16 +3280,22 @@
       <c r="C100" s="2" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D100" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>93</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D101" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>94</v>
       </c>
@@ -2999,8 +3305,11 @@
       <c r="C102" s="2" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D102" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>63</v>
       </c>
@@ -3010,8 +3319,11 @@
       <c r="C103" s="2" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D103" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>95</v>
       </c>
@@ -3021,8 +3333,11 @@
       <c r="C104" s="2" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D104" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>96</v>
       </c>
@@ -3032,8 +3347,11 @@
       <c r="C105" s="2" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D105" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>97</v>
       </c>
@@ -3043,8 +3361,11 @@
       <c r="C106" s="2" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D106" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>98</v>
       </c>
@@ -3054,8 +3375,11 @@
       <c r="C107" s="2" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D107" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>99</v>
       </c>
@@ -3065,8 +3389,11 @@
       <c r="C108" s="2" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D108" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>100</v>
       </c>
@@ -3076,8 +3403,11 @@
       <c r="C109" s="2" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D109" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>101</v>
       </c>
@@ -3087,8 +3417,11 @@
       <c r="C110" s="2" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D110" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>102</v>
       </c>
@@ -3098,8 +3431,11 @@
       <c r="C111" s="2" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D111" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>103</v>
       </c>
@@ -3109,8 +3445,11 @@
       <c r="C112" s="2" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D112" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>104</v>
       </c>
@@ -3120,16 +3459,22 @@
       <c r="C113" s="2" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D113" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>105</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D114" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>106</v>
       </c>
@@ -3139,8 +3484,11 @@
       <c r="C115" s="2" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D115" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>25</v>
       </c>
@@ -3150,8 +3498,11 @@
       <c r="C116" s="2" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D116" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>107</v>
       </c>
@@ -3161,8 +3512,11 @@
       <c r="C117" s="2" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D117" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>108</v>
       </c>
@@ -3172,16 +3526,22 @@
       <c r="C118" s="2" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D118" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>109</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D119" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>110</v>
       </c>
@@ -3191,16 +3551,22 @@
       <c r="C120" s="2" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D120" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>111</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D121" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>112</v>
       </c>
@@ -3210,8 +3576,11 @@
       <c r="C122" s="2" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D122" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>113</v>
       </c>
@@ -3221,8 +3590,11 @@
       <c r="C123" s="2" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D123" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>114</v>
       </c>
@@ -3232,8 +3604,11 @@
       <c r="C124" s="2" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D124" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>23</v>
       </c>
@@ -3243,16 +3618,22 @@
       <c r="C125" s="2" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D125" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>115</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D126" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>116</v>
       </c>
@@ -3262,8 +3643,11 @@
       <c r="C127" s="2" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D127" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>117</v>
       </c>
@@ -3273,8 +3657,11 @@
       <c r="C128" s="2" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D128" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>118</v>
       </c>
@@ -3284,16 +3671,22 @@
       <c r="C129" s="2" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D129" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>119</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D130" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>120</v>
       </c>
@@ -3303,8 +3696,11 @@
       <c r="C131" s="2" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D131" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>121</v>
       </c>
@@ -3314,8 +3710,11 @@
       <c r="C132" s="2" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D132" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>122</v>
       </c>
@@ -3325,8 +3724,11 @@
       <c r="C133" s="2" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D133" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>123</v>
       </c>
@@ -3336,8 +3738,11 @@
       <c r="C134" s="2" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D134" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>124</v>
       </c>
@@ -3347,8 +3752,11 @@
       <c r="C135" s="2" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D135" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>125</v>
       </c>
@@ -3358,8 +3766,11 @@
       <c r="C136" s="2" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D136" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>126</v>
       </c>
@@ -3369,8 +3780,11 @@
       <c r="C137" s="2" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D137" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>127</v>
       </c>
@@ -3380,8 +3794,11 @@
       <c r="C138" s="2" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D138" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>128</v>
       </c>
@@ -3391,8 +3808,11 @@
       <c r="C139" s="2" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D139" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>129</v>
       </c>
@@ -3402,8 +3822,11 @@
       <c r="C140" s="2" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D140" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>130</v>
       </c>
@@ -3413,8 +3836,11 @@
       <c r="C141" s="2" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D141" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>131</v>
       </c>
@@ -3424,8 +3850,11 @@
       <c r="C142" s="2" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D142" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>132</v>
       </c>
@@ -3435,16 +3864,22 @@
       <c r="C143" s="2" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D143" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>133</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D144" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>63</v>
       </c>
@@ -3454,8 +3889,11 @@
       <c r="C145" s="2" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D145" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>15</v>
       </c>
@@ -3465,8 +3903,11 @@
       <c r="C146" s="2" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D146" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>134</v>
       </c>
@@ -3476,8 +3917,11 @@
       <c r="C147" s="2" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D147" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>15</v>
       </c>
@@ -3487,8 +3931,11 @@
       <c r="C148" s="2" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D148" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>135</v>
       </c>
@@ -3498,8 +3945,11 @@
       <c r="C149" s="2" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D149" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>136</v>
       </c>
@@ -3509,8 +3959,11 @@
       <c r="C150" s="2" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D150" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>137</v>
       </c>
@@ -3520,16 +3973,22 @@
       <c r="C151" s="2" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D151" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>138</v>
       </c>
       <c r="B152" s="2" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D152" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>139</v>
       </c>
@@ -3539,8 +3998,11 @@
       <c r="C153" s="2" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D153" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>140</v>
       </c>
@@ -3550,16 +4012,22 @@
       <c r="C154" s="2" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D154" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>141</v>
       </c>
       <c r="B155" s="2" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D155" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>142</v>
       </c>
@@ -3569,8 +4037,11 @@
       <c r="C156" s="2" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D156" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>143</v>
       </c>
@@ -3580,8 +4051,11 @@
       <c r="C157" s="2" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D157" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>144</v>
       </c>
@@ -3591,16 +4065,22 @@
       <c r="C158" s="2" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D158" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>145</v>
       </c>
       <c r="B159" s="2" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D159" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>146</v>
       </c>
@@ -3610,17 +4090,23 @@
       <c r="C160" s="2" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D160" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>147</v>
       </c>
       <c r="B161" s="2" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
+      <c r="D161" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A162" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B162" s="2" t="s">
@@ -3629,8 +4115,11 @@
       <c r="C162" s="2" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D162" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>148</v>
       </c>
@@ -3640,8 +4129,11 @@
       <c r="C163" s="2" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D163" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>149</v>
       </c>
@@ -3651,8 +4143,11 @@
       <c r="C164" s="2" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D164" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>150</v>
       </c>
@@ -3662,16 +4157,22 @@
       <c r="C165" s="2" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D165" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>151</v>
       </c>
       <c r="B166" s="2" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D166" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>152</v>
       </c>
@@ -3681,16 +4182,22 @@
       <c r="C167" s="2" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D167" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>5</v>
       </c>
       <c r="B168" s="2" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D168" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>153</v>
       </c>
@@ -3700,8 +4207,11 @@
       <c r="C169" s="2" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D169" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>154</v>
       </c>
@@ -3711,40 +4221,55 @@
       <c r="C170" s="2" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D170" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>155</v>
       </c>
       <c r="B171" s="2" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D171" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>156</v>
       </c>
       <c r="B172" s="2" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D172" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>157</v>
       </c>
       <c r="B173" s="2" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D173" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>32</v>
       </c>
       <c r="B174" s="2" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D174" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>158</v>
       </c>
@@ -3754,8 +4279,11 @@
       <c r="C175" s="2" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D175" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>159</v>
       </c>
@@ -3765,8 +4293,11 @@
       <c r="C176" s="2" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D176" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>160</v>
       </c>
@@ -3776,8 +4307,11 @@
       <c r="C177" s="2" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D177" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>161</v>
       </c>
@@ -3787,8 +4321,11 @@
       <c r="C178" s="2" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D178" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>162</v>
       </c>
@@ -3798,8 +4335,11 @@
       <c r="C179" s="2" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D179" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>163</v>
       </c>
@@ -3807,26 +4347,35 @@
         <v>448</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+        <v>449</v>
+      </c>
+      <c r="D180" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>164</v>
       </c>
       <c r="B181" s="2" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D181" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>165</v>
       </c>
       <c r="B182" s="2" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D182" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>166</v>
       </c>
@@ -3836,8 +4385,11 @@
       <c r="C183" s="2" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D183" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>15</v>
       </c>
@@ -3847,16 +4399,22 @@
       <c r="C184" s="2" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D184" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>167</v>
       </c>
       <c r="B185" s="2" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D185" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>168</v>
       </c>
@@ -3866,8 +4424,11 @@
       <c r="C186" s="2" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D186" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>169</v>
       </c>
@@ -3877,8 +4438,11 @@
       <c r="C187" s="2" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D187" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>170</v>
       </c>
@@ -3888,16 +4452,22 @@
       <c r="C188" s="2" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D188" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>171</v>
       </c>
       <c r="B189" s="2" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D189" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>172</v>
       </c>
@@ -3907,8 +4477,11 @@
       <c r="C190" s="2" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D190" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>173</v>
       </c>
@@ -3918,8 +4491,11 @@
       <c r="C191" s="2" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D191" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>174</v>
       </c>
@@ -3929,8 +4505,11 @@
       <c r="C192" s="2" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D192" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>175</v>
       </c>
@@ -3940,8 +4519,11 @@
       <c r="C193" s="2" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D193" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>176</v>
       </c>
@@ -3951,8 +4533,11 @@
       <c r="C194" s="2" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D194" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>177</v>
       </c>
@@ -3962,8 +4547,11 @@
       <c r="C195" s="2" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D195" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>178</v>
       </c>
@@ -3973,8 +4561,11 @@
       <c r="C196" s="2" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D196" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>179</v>
       </c>
@@ -3984,8 +4575,11 @@
       <c r="C197" s="2" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D197" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>180</v>
       </c>
@@ -3995,8 +4589,11 @@
       <c r="C198" s="2" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D198" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>181</v>
       </c>
@@ -4006,8 +4603,11 @@
       <c r="C199" s="2" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D199" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>182</v>
       </c>
@@ -4017,8 +4617,11 @@
       <c r="C200" s="2" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D200" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>183</v>
       </c>
@@ -4028,8 +4631,11 @@
       <c r="C201" s="2" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D201" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>184</v>
       </c>
@@ -4039,8 +4645,11 @@
       <c r="C202" s="2" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D202" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>23</v>
       </c>
@@ -4050,8 +4659,11 @@
       <c r="C203" s="2" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D203" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>185</v>
       </c>
@@ -4061,8 +4673,11 @@
       <c r="C204" s="2" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D204" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>186</v>
       </c>
@@ -4072,8 +4687,11 @@
       <c r="C205" s="2" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D205" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>187</v>
       </c>
@@ -4083,8 +4701,11 @@
       <c r="C206" s="2" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D206" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>188</v>
       </c>
@@ -4094,8 +4715,11 @@
       <c r="C207" s="2" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D207" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>189</v>
       </c>
@@ -4105,8 +4729,11 @@
       <c r="C208" s="2" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D208" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>190</v>
       </c>
@@ -4116,8 +4743,11 @@
       <c r="C209" s="2" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D209" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>191</v>
       </c>
@@ -4127,8 +4757,11 @@
       <c r="C210" s="2" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D210" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>192</v>
       </c>
@@ -4138,32 +4771,44 @@
       <c r="C211" s="2" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D211" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>193</v>
       </c>
       <c r="B212" s="2" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D212" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>194</v>
       </c>
       <c r="B213" s="2" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D213" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>195</v>
       </c>
       <c r="B214" s="2" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D214" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>196</v>
       </c>
@@ -4173,8 +4818,11 @@
       <c r="C215" s="2" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D215" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>197</v>
       </c>
@@ -4184,8 +4832,11 @@
       <c r="C216" s="2" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D216" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>198</v>
       </c>
@@ -4195,8 +4846,11 @@
       <c r="C217" s="2" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D217" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>23</v>
       </c>
@@ -4206,8 +4860,11 @@
       <c r="C218" s="2" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D218" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>199</v>
       </c>
@@ -4217,24 +4874,33 @@
       <c r="C219" s="2" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D219" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>200</v>
       </c>
       <c r="B220" s="2" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D220" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>201</v>
       </c>
       <c r="B221" s="2" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D221" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>202</v>
       </c>
@@ -4244,16 +4910,22 @@
       <c r="C222" s="2" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D222" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>203</v>
       </c>
       <c r="B223" s="2" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D223" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>204</v>
       </c>
@@ -4263,16 +4935,22 @@
       <c r="C224" s="2" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D224" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>205</v>
       </c>
       <c r="B225" s="2" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D225" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>206</v>
       </c>
@@ -4282,8 +4960,11 @@
       <c r="C226" s="2" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D226" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>207</v>
       </c>
@@ -4293,8 +4974,11 @@
       <c r="C227" s="2" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D227" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>208</v>
       </c>
@@ -4304,8 +4988,11 @@
       <c r="C228" s="2" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D228" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>209</v>
       </c>
@@ -4315,8 +5002,11 @@
       <c r="C229" s="2" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D229" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>210</v>
       </c>
@@ -4326,8 +5016,11 @@
       <c r="C230" s="2" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D230" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>211</v>
       </c>
@@ -4337,8 +5030,11 @@
       <c r="C231" s="2" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D231" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>212</v>
       </c>
@@ -4348,8 +5044,11 @@
       <c r="C232" s="2" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D232" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>213</v>
       </c>
@@ -4359,8 +5058,11 @@
       <c r="C233" s="2" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D233" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>214</v>
       </c>
@@ -4370,16 +5072,22 @@
       <c r="C234" s="2" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D234" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>215</v>
       </c>
       <c r="B235" s="2" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D235" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>216</v>
       </c>
@@ -4389,16 +5097,22 @@
       <c r="C236" s="2" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D236" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>49</v>
       </c>
       <c r="B237" s="2" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D237" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>217</v>
       </c>
@@ -4408,8 +5122,11 @@
       <c r="C238" s="2" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D238" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>218</v>
       </c>
@@ -4419,8 +5136,11 @@
       <c r="C239" s="2" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D239" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>219</v>
       </c>
@@ -4430,32 +5150,44 @@
       <c r="C240" s="2" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D240" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>32</v>
       </c>
       <c r="B241" s="2" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D241" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>220</v>
       </c>
       <c r="B242" s="2" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D242" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>221</v>
       </c>
       <c r="B243" s="2" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D243" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>222</v>
       </c>
@@ -4465,8 +5197,11 @@
       <c r="C244" s="2" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D244" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>223</v>
       </c>
@@ -4476,16 +5211,22 @@
       <c r="C245" s="2" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D245" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>224</v>
       </c>
       <c r="B246" s="2" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D246" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>225</v>
       </c>
@@ -4495,16 +5236,22 @@
       <c r="C247" s="2" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D247" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>226</v>
       </c>
       <c r="B248" s="2" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D248" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>227</v>
       </c>
@@ -4514,8 +5261,11 @@
       <c r="C249" s="2" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D249" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>228</v>
       </c>
@@ -4525,8 +5275,11 @@
       <c r="C250" s="2" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D250" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>229</v>
       </c>
@@ -4536,8 +5289,11 @@
       <c r="C251" s="2" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D251" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>230</v>
       </c>
@@ -4547,8 +5303,11 @@
       <c r="C252" s="2" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D252" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>231</v>
       </c>
@@ -4558,8 +5317,11 @@
       <c r="C253" s="2" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D253" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>232</v>
       </c>
@@ -4569,16 +5331,22 @@
       <c r="C254" s="2" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D254" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>233</v>
       </c>
       <c r="B255" s="2" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D255" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>234</v>
       </c>
@@ -4588,8 +5356,11 @@
       <c r="C256" s="2" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D256" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>235</v>
       </c>
@@ -4599,8 +5370,11 @@
       <c r="C257" s="2" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D257" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>236</v>
       </c>
@@ -4610,8 +5384,11 @@
       <c r="C258" s="2" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D258" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>237</v>
       </c>
@@ -4621,8 +5398,11 @@
       <c r="C259" s="2" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D259" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>238</v>
       </c>
@@ -4632,8 +5412,11 @@
       <c r="C260" s="2" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D260" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>25</v>
       </c>
@@ -4643,8 +5426,11 @@
       <c r="C261" s="2" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D261" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>239</v>
       </c>
@@ -4654,8 +5440,11 @@
       <c r="C262" s="2" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D262" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>240</v>
       </c>
@@ -4665,8 +5454,11 @@
       <c r="C263" s="2" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D263" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>241</v>
       </c>
@@ -4676,8 +5468,11 @@
       <c r="C264" s="2" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D264" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>242</v>
       </c>
@@ -4687,8 +5482,11 @@
       <c r="C265" s="2" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D265" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>243</v>
       </c>
@@ -4698,24 +5496,33 @@
       <c r="C266" s="2" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D266" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>32</v>
       </c>
       <c r="B267" s="2" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D267" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>244</v>
       </c>
       <c r="B268" s="2" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D268" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>245</v>
       </c>
@@ -4725,16 +5532,22 @@
       <c r="C269" s="2" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D269" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>246</v>
       </c>
       <c r="B270" s="2" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D270" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>247</v>
       </c>
@@ -4744,8 +5557,11 @@
       <c r="C271" s="2" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D271" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>248</v>
       </c>
@@ -4755,8 +5571,11 @@
       <c r="C272" s="2" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D272" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>249</v>
       </c>
@@ -4766,16 +5585,22 @@
       <c r="C273" s="2" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D273" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>95</v>
       </c>
       <c r="B274" s="2" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D274" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>250</v>
       </c>
@@ -4785,8 +5610,11 @@
       <c r="C275" s="2" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D275" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>251</v>
       </c>
@@ -4796,8 +5624,11 @@
       <c r="C276" s="2" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D276" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>252</v>
       </c>
@@ -4807,8 +5638,11 @@
       <c r="C277" s="2" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D277" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>253</v>
       </c>
@@ -4818,8 +5652,11 @@
       <c r="C278" s="2" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D278" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>254</v>
       </c>
@@ -4829,8 +5666,11 @@
       <c r="C279" s="2" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D279" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>255</v>
       </c>
@@ -4840,8 +5680,11 @@
       <c r="C280" s="2" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D280" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>23</v>
       </c>
@@ -4851,16 +5694,22 @@
       <c r="C281" s="2" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D281" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>256</v>
       </c>
       <c r="B282" s="2" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D282" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>25</v>
       </c>
@@ -4870,8 +5719,11 @@
       <c r="C283" s="2" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D283" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>257</v>
       </c>
@@ -4881,8 +5733,11 @@
       <c r="C284" s="2" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D284" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>258</v>
       </c>
@@ -4892,16 +5747,22 @@
       <c r="C285" s="2" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D285" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>259</v>
       </c>
       <c r="B286" s="2" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D286" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>260</v>
       </c>
@@ -4911,16 +5772,22 @@
       <c r="C287" s="2" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D287" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>261</v>
       </c>
       <c r="B288" s="2" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D288" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>262</v>
       </c>
@@ -4930,8 +5797,11 @@
       <c r="C289" s="2" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D289" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>263</v>
       </c>
@@ -4941,8 +5811,11 @@
       <c r="C290" s="2" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D290" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>264</v>
       </c>
@@ -4952,8 +5825,11 @@
       <c r="C291" s="2" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D291" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>265</v>
       </c>
@@ -4963,8 +5839,11 @@
       <c r="C292" s="2" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D292" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>95</v>
       </c>
@@ -4974,8 +5853,11 @@
       <c r="C293" s="2" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D293" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>266</v>
       </c>
@@ -4985,8 +5867,11 @@
       <c r="C294" s="2" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D294" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>25</v>
       </c>
@@ -4996,8 +5881,11 @@
       <c r="C295" s="2" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D295" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>267</v>
       </c>
@@ -5007,8 +5895,11 @@
       <c r="C296" s="2" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D296" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>268</v>
       </c>
@@ -5018,24 +5909,33 @@
       <c r="C297" s="2" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D297" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>269</v>
       </c>
       <c r="B298" s="2" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D298" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>32</v>
       </c>
       <c r="B299" s="2" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D299" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>270</v>
       </c>
@@ -5045,8 +5945,11 @@
       <c r="C300" s="2" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D300" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>271</v>
       </c>
@@ -5055,6 +5958,9 @@
       </c>
       <c r="C301" s="2" t="s">
         <v>451</v>
+      </c>
+      <c r="D301" t="s">
+        <v>448</v>
       </c>
     </row>
   </sheetData>
@@ -5066,8 +5972,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D201"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView topLeftCell="A196" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5075,7 +5981,7 @@
     <col min="1" max="1" width="90.42578125" customWidth="1"/>
     <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -5089,7 +5995,7 @@
         <v>452</v>
       </c>
       <c r="D1" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">

--- a/tweets_Nintendo_201809042125.xlsx
+++ b/tweets_Nintendo_201809042125.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jadson\Desktop\Insper\Ciência dos dados\Projeto2CDD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F032B52B-F174-4B63-924F-24DA3E064F2F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B266AAD-574A-4A92-B50D-CE8D23C158DA}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="21600" windowHeight="9510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="21600" windowHeight="9510" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1689" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1888" uniqueCount="457">
   <si>
     <t>Treinamento</t>
   </si>
@@ -1945,8 +1945,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A279" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D292" sqref="D292"/>
+    <sheetView topLeftCell="A261" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A274" sqref="A274"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5972,8 +5972,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D201"/>
   <sheetViews>
-    <sheetView topLeftCell="A196" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A194" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D163" sqref="D163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5998,11 +5998,14 @@
         <v>455</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>273</v>
       </c>
       <c r="B2" t="s">
+        <v>450</v>
+      </c>
+      <c r="D2" t="s">
         <v>450</v>
       </c>
     </row>
@@ -6013,6 +6016,9 @@
       <c r="B3" t="s">
         <v>450</v>
       </c>
+      <c r="D3" t="s">
+        <v>454</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -6024,6 +6030,9 @@
       <c r="C4" t="s">
         <v>451</v>
       </c>
+      <c r="D4" t="s">
+        <v>453</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -6035,6 +6044,9 @@
       <c r="C5" t="s">
         <v>451</v>
       </c>
+      <c r="D5" t="s">
+        <v>456</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -6046,6 +6058,9 @@
       <c r="C6" t="s">
         <v>451</v>
       </c>
+      <c r="D6" t="s">
+        <v>453</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -6057,6 +6072,9 @@
       <c r="C7" t="s">
         <v>451</v>
       </c>
+      <c r="D7" t="s">
+        <v>456</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -6068,6 +6086,9 @@
       <c r="C8" t="s">
         <v>449</v>
       </c>
+      <c r="D8" t="s">
+        <v>453</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -6079,6 +6100,9 @@
       <c r="C9" t="s">
         <v>451</v>
       </c>
+      <c r="D9" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -6090,6 +6114,9 @@
       <c r="C10" t="s">
         <v>451</v>
       </c>
+      <c r="D10" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -6101,6 +6128,9 @@
       <c r="C11" t="s">
         <v>451</v>
       </c>
+      <c r="D11" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -6112,6 +6142,9 @@
       <c r="C12" t="s">
         <v>451</v>
       </c>
+      <c r="D12" t="s">
+        <v>453</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -6123,6 +6156,9 @@
       <c r="C13" t="s">
         <v>451</v>
       </c>
+      <c r="D13" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -6134,6 +6170,9 @@
       <c r="C14" t="s">
         <v>451</v>
       </c>
+      <c r="D14" t="s">
+        <v>456</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -6145,6 +6184,9 @@
       <c r="C15" t="s">
         <v>451</v>
       </c>
+      <c r="D15" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -6156,8 +6198,11 @@
       <c r="C16" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>288</v>
       </c>
@@ -6167,8 +6212,11 @@
       <c r="C17" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>289</v>
       </c>
@@ -6178,8 +6226,11 @@
       <c r="C18" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>290</v>
       </c>
@@ -6189,16 +6240,22 @@
       <c r="C19" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>291</v>
       </c>
       <c r="B20" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>292</v>
       </c>
@@ -6208,8 +6265,11 @@
       <c r="C21" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>293</v>
       </c>
@@ -6219,8 +6279,11 @@
       <c r="C22" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -6230,8 +6293,11 @@
       <c r="C23" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>294</v>
       </c>
@@ -6241,8 +6307,11 @@
       <c r="C24" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>295</v>
       </c>
@@ -6252,24 +6321,33 @@
       <c r="C25" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>296</v>
       </c>
       <c r="B26" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>32</v>
       </c>
       <c r="B27" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>297</v>
       </c>
@@ -6279,8 +6357,11 @@
       <c r="C28" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>298</v>
       </c>
@@ -6290,8 +6371,11 @@
       <c r="C29" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>299</v>
       </c>
@@ -6301,16 +6385,22 @@
       <c r="C30" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>300</v>
       </c>
       <c r="B31" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>301</v>
       </c>
@@ -6320,8 +6410,11 @@
       <c r="C32" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>302</v>
       </c>
@@ -6331,8 +6424,11 @@
       <c r="C33" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>303</v>
       </c>
@@ -6342,8 +6438,11 @@
       <c r="C34" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D34" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>131</v>
       </c>
@@ -6353,32 +6452,44 @@
       <c r="C35" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D35" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>32</v>
       </c>
       <c r="B36" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D36" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>47</v>
       </c>
       <c r="B37" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D37" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>304</v>
       </c>
       <c r="B38" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D38" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>305</v>
       </c>
@@ -6388,16 +6499,22 @@
       <c r="C39" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D39" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>306</v>
       </c>
       <c r="B40" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D40" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>307</v>
       </c>
@@ -6407,8 +6524,11 @@
       <c r="C41" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D41" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>308</v>
       </c>
@@ -6418,8 +6538,11 @@
       <c r="C42" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D42" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>46</v>
       </c>
@@ -6429,8 +6552,11 @@
       <c r="C43" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D43" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>309</v>
       </c>
@@ -6440,8 +6566,11 @@
       <c r="C44" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D44" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>310</v>
       </c>
@@ -6451,8 +6580,11 @@
       <c r="C45" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D45" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>311</v>
       </c>
@@ -6462,32 +6594,44 @@
       <c r="C46" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D46" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>296</v>
       </c>
       <c r="B47" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D47" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>312</v>
       </c>
       <c r="B48" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D48" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>313</v>
       </c>
       <c r="B49" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D49" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>314</v>
       </c>
@@ -6497,8 +6641,11 @@
       <c r="C50" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D50" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>25</v>
       </c>
@@ -6508,8 +6655,11 @@
       <c r="C51" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D51" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>315</v>
       </c>
@@ -6519,16 +6669,22 @@
       <c r="C52" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D52" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>32</v>
       </c>
       <c r="B53" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D53" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>316</v>
       </c>
@@ -6538,8 +6694,11 @@
       <c r="C54" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D54" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>317</v>
       </c>
@@ -6549,8 +6708,11 @@
       <c r="C55" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D55" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>318</v>
       </c>
@@ -6560,8 +6722,11 @@
       <c r="C56" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D56" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>319</v>
       </c>
@@ -6571,8 +6736,11 @@
       <c r="C57" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D57" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>320</v>
       </c>
@@ -6582,8 +6750,11 @@
       <c r="C58" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D58" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>321</v>
       </c>
@@ -6593,8 +6764,11 @@
       <c r="C59" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D59" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>322</v>
       </c>
@@ -6604,8 +6778,11 @@
       <c r="C60" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D60" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>323</v>
       </c>
@@ -6615,16 +6792,22 @@
       <c r="C61" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D61" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>15</v>
       </c>
       <c r="B62" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D62" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>324</v>
       </c>
@@ -6634,16 +6817,22 @@
       <c r="C63" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D63" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>325</v>
       </c>
       <c r="B64" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D64" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>326</v>
       </c>
@@ -6653,8 +6842,11 @@
       <c r="C65" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D65" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>327</v>
       </c>
@@ -6664,8 +6856,11 @@
       <c r="C66" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D66" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>328</v>
       </c>
@@ -6675,8 +6870,11 @@
       <c r="C67" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D67" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>329</v>
       </c>
@@ -6686,8 +6884,11 @@
       <c r="C68" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D68" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>103</v>
       </c>
@@ -6697,8 +6898,11 @@
       <c r="C69" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D69" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>25</v>
       </c>
@@ -6708,16 +6912,22 @@
       <c r="C70" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D70" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>15</v>
       </c>
       <c r="B71" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D71" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>330</v>
       </c>
@@ -6727,8 +6937,11 @@
       <c r="C72" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D72" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>331</v>
       </c>
@@ -6738,16 +6951,22 @@
       <c r="C73" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D73" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>332</v>
       </c>
       <c r="B74" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D74" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>333</v>
       </c>
@@ -6757,16 +6976,22 @@
       <c r="C75" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D75" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>334</v>
       </c>
       <c r="B76" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D76" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>23</v>
       </c>
@@ -6776,8 +7001,11 @@
       <c r="C77" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D77" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>335</v>
       </c>
@@ -6787,8 +7015,11 @@
       <c r="C78" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D78" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>336</v>
       </c>
@@ -6798,8 +7029,11 @@
       <c r="C79" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D79" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>25</v>
       </c>
@@ -6809,8 +7043,11 @@
       <c r="C80" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D80" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>337</v>
       </c>
@@ -6820,16 +7057,22 @@
       <c r="C81" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D81" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>338</v>
       </c>
       <c r="B82" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D82" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
         <v>339</v>
       </c>
@@ -6839,8 +7082,11 @@
       <c r="C83" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D83" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>340</v>
       </c>
@@ -6850,8 +7096,11 @@
       <c r="C84" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D84" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>341</v>
       </c>
@@ -6861,8 +7110,11 @@
       <c r="C85" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D85" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>342</v>
       </c>
@@ -6872,8 +7124,11 @@
       <c r="C86" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D86" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>343</v>
       </c>
@@ -6883,8 +7138,11 @@
       <c r="C87" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D87" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>344</v>
       </c>
@@ -6894,8 +7152,11 @@
       <c r="C88" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D88" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>345</v>
       </c>
@@ -6905,8 +7166,11 @@
       <c r="C89" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D89" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>346</v>
       </c>
@@ -6916,24 +7180,33 @@
       <c r="C90" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D90" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>347</v>
       </c>
       <c r="B91" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D91" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>348</v>
       </c>
       <c r="B92" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D92" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>349</v>
       </c>
@@ -6943,8 +7216,11 @@
       <c r="C93" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D93" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>350</v>
       </c>
@@ -6954,8 +7230,11 @@
       <c r="C94" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D94" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>351</v>
       </c>
@@ -6965,24 +7244,33 @@
       <c r="C95" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D95" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>352</v>
       </c>
       <c r="B96" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D96" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>353</v>
       </c>
       <c r="B97" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D97" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>354</v>
       </c>
@@ -6992,16 +7280,22 @@
       <c r="C98" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D98" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>355</v>
       </c>
       <c r="B99" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D99" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>356</v>
       </c>
@@ -7011,8 +7305,11 @@
       <c r="C100" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D100" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>357</v>
       </c>
@@ -7022,24 +7319,33 @@
       <c r="C101" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D101" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>95</v>
       </c>
       <c r="B102" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D102" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>358</v>
       </c>
       <c r="B103" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D103" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>359</v>
       </c>
@@ -7049,8 +7355,11 @@
       <c r="C104" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D104" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>360</v>
       </c>
@@ -7060,16 +7369,22 @@
       <c r="C105" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D105" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>361</v>
       </c>
       <c r="B106" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D106" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>23</v>
       </c>
@@ -7079,8 +7394,11 @@
       <c r="C107" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D107" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>362</v>
       </c>
@@ -7090,8 +7408,11 @@
       <c r="C108" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D108" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>363</v>
       </c>
@@ -7101,8 +7422,11 @@
       <c r="C109" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D109" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>364</v>
       </c>
@@ -7112,8 +7436,11 @@
       <c r="C110" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D110" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>365</v>
       </c>
@@ -7123,8 +7450,11 @@
       <c r="C111" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D111" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>366</v>
       </c>
@@ -7134,8 +7464,11 @@
       <c r="C112" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D112" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>367</v>
       </c>
@@ -7145,16 +7478,22 @@
       <c r="C113" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D113" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>32</v>
       </c>
       <c r="B114" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D114" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>368</v>
       </c>
@@ -7164,8 +7503,11 @@
       <c r="C115" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D115" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>63</v>
       </c>
@@ -7175,32 +7517,44 @@
       <c r="C116" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D116" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>95</v>
       </c>
       <c r="B117" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D117" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>95</v>
       </c>
       <c r="B118" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D118" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>369</v>
       </c>
       <c r="B119" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D119" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>370</v>
       </c>
@@ -7210,8 +7564,11 @@
       <c r="C120" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D120" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>131</v>
       </c>
@@ -7221,8 +7578,11 @@
       <c r="C121" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D121" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>371</v>
       </c>
@@ -7232,8 +7592,11 @@
       <c r="C122" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D122" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>372</v>
       </c>
@@ -7243,16 +7606,22 @@
       <c r="C123" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D123" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>373</v>
       </c>
       <c r="B124" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D124" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>374</v>
       </c>
@@ -7262,8 +7631,11 @@
       <c r="C125" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D125" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>375</v>
       </c>
@@ -7273,8 +7645,11 @@
       <c r="C126" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D126" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>376</v>
       </c>
@@ -7284,8 +7659,11 @@
       <c r="C127" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D127" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>377</v>
       </c>
@@ -7295,8 +7673,11 @@
       <c r="C128" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D128" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>378</v>
       </c>
@@ -7306,8 +7687,11 @@
       <c r="C129" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D129" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>379</v>
       </c>
@@ -7317,8 +7701,11 @@
       <c r="C130" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D130" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>380</v>
       </c>
@@ -7328,8 +7715,11 @@
       <c r="C131" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D131" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>381</v>
       </c>
@@ -7339,8 +7729,11 @@
       <c r="C132" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D132" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>222</v>
       </c>
@@ -7350,8 +7743,11 @@
       <c r="C133" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D133" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>382</v>
       </c>
@@ -7361,8 +7757,11 @@
       <c r="C134" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D134" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>383</v>
       </c>
@@ -7372,8 +7771,11 @@
       <c r="C135" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D135" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>384</v>
       </c>
@@ -7383,8 +7785,11 @@
       <c r="C136" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D136" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>385</v>
       </c>
@@ -7394,8 +7799,11 @@
       <c r="C137" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D137" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>386</v>
       </c>
@@ -7405,16 +7813,22 @@
       <c r="C138" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D138" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>387</v>
       </c>
       <c r="B139" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D139" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>388</v>
       </c>
@@ -7425,15 +7839,18 @@
         <v>451</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>389</v>
       </c>
       <c r="B141" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D141" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>390</v>
       </c>
@@ -7443,8 +7860,11 @@
       <c r="C142" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D142" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>391</v>
       </c>
@@ -7454,8 +7874,11 @@
       <c r="C143" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D143" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>392</v>
       </c>
@@ -7465,8 +7888,11 @@
       <c r="C144" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D144" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>393</v>
       </c>
@@ -7476,8 +7902,11 @@
       <c r="C145" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D145" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>394</v>
       </c>
@@ -7487,8 +7916,11 @@
       <c r="C146" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D146" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>395</v>
       </c>
@@ -7498,8 +7930,11 @@
       <c r="C147" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D147" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>396</v>
       </c>
@@ -7509,8 +7944,11 @@
       <c r="C148" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D148" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>397</v>
       </c>
@@ -7520,8 +7958,11 @@
       <c r="C149" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D149" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>398</v>
       </c>
@@ -7531,16 +7972,22 @@
       <c r="C150" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D150" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>399</v>
       </c>
       <c r="B151" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D151" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>400</v>
       </c>
@@ -7550,32 +7997,44 @@
       <c r="C152" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D152" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>32</v>
       </c>
       <c r="B153" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D153" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>401</v>
       </c>
       <c r="B154" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D154" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>402</v>
       </c>
       <c r="B155" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D155" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>403</v>
       </c>
@@ -7585,8 +8044,11 @@
       <c r="C156" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D156" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>404</v>
       </c>
@@ -7596,8 +8058,11 @@
       <c r="C157" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D157" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>405</v>
       </c>
@@ -7607,8 +8072,11 @@
       <c r="C158" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D158" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>406</v>
       </c>
@@ -7618,8 +8086,11 @@
       <c r="C159" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D159" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>407</v>
       </c>
@@ -7629,8 +8100,11 @@
       <c r="C160" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D160" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>408</v>
       </c>
@@ -7640,16 +8114,22 @@
       <c r="C161" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D161" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>409</v>
       </c>
       <c r="B162" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D162" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>410</v>
       </c>
@@ -7659,8 +8139,11 @@
       <c r="C163" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D163" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>411</v>
       </c>
@@ -7670,8 +8153,11 @@
       <c r="C164" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D164" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>412</v>
       </c>
@@ -7681,8 +8167,11 @@
       <c r="C165" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D165" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>413</v>
       </c>
@@ -7692,8 +8181,11 @@
       <c r="C166" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D166" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>414</v>
       </c>
@@ -7703,8 +8195,11 @@
       <c r="C167" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D167" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>415</v>
       </c>
@@ -7714,16 +8209,22 @@
       <c r="C168" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D168" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>416</v>
       </c>
       <c r="B169" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D169" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>417</v>
       </c>
@@ -7733,8 +8234,11 @@
       <c r="C170" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D170" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>418</v>
       </c>
@@ -7744,8 +8248,11 @@
       <c r="C171" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D171" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>419</v>
       </c>
@@ -7755,8 +8262,11 @@
       <c r="C172" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D172" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>420</v>
       </c>
@@ -7766,8 +8276,11 @@
       <c r="C173" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D173" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>421</v>
       </c>
@@ -7777,16 +8290,22 @@
       <c r="C174" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D174" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>422</v>
       </c>
       <c r="B175" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D175" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>423</v>
       </c>
@@ -7796,16 +8315,22 @@
       <c r="C176" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D176" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>424</v>
       </c>
       <c r="B177" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D177" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>425</v>
       </c>
@@ -7815,8 +8340,11 @@
       <c r="C178" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D178" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>426</v>
       </c>
@@ -7826,16 +8354,22 @@
       <c r="C179" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D179" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>427</v>
       </c>
       <c r="B180" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D180" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>428</v>
       </c>
@@ -7845,8 +8379,11 @@
       <c r="C181" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D181" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>429</v>
       </c>
@@ -7856,8 +8393,11 @@
       <c r="C182" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D182" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>430</v>
       </c>
@@ -7867,8 +8407,11 @@
       <c r="C183" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D183" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>431</v>
       </c>
@@ -7878,16 +8421,22 @@
       <c r="C184" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D184" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>432</v>
       </c>
       <c r="B185" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D185" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>433</v>
       </c>
@@ -7897,8 +8446,11 @@
       <c r="C186" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D186" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>5</v>
       </c>
@@ -7908,8 +8460,11 @@
       <c r="C187" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D187" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>434</v>
       </c>
@@ -7919,16 +8474,22 @@
       <c r="C188" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D188" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>435</v>
       </c>
       <c r="B189" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D189" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>436</v>
       </c>
@@ -7938,8 +8499,11 @@
       <c r="C190" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D190" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>437</v>
       </c>
@@ -7949,8 +8513,11 @@
       <c r="C191" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D191" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>438</v>
       </c>
@@ -7960,16 +8527,22 @@
       <c r="C192" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D192" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>63</v>
       </c>
       <c r="B193" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D193" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>439</v>
       </c>
@@ -7979,8 +8552,11 @@
       <c r="C194" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D194" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>440</v>
       </c>
@@ -7990,8 +8566,11 @@
       <c r="C195" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D195" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>441</v>
       </c>
@@ -8001,24 +8580,33 @@
       <c r="C196" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D196" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>442</v>
       </c>
       <c r="B197" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D197" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>443</v>
       </c>
       <c r="B198" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D198" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>444</v>
       </c>
@@ -8028,16 +8616,22 @@
       <c r="C199" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D199" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>445</v>
       </c>
       <c r="B200" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D200" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>446</v>
       </c>
@@ -8046,6 +8640,9 @@
       </c>
       <c r="C201" t="s">
         <v>451</v>
+      </c>
+      <c r="D201" t="s">
+        <v>448</v>
       </c>
     </row>
   </sheetData>

--- a/tweets_Nintendo_201809042125.xlsx
+++ b/tweets_Nintendo_201809042125.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jadson\Desktop\Insper\Ciência dos dados\Projeto2CDD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B266AAD-574A-4A92-B50D-CE8D23C158DA}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D64235FC-9DC8-4A71-A460-4C5EB8210303}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="600" windowWidth="21600" windowHeight="9510" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5972,8 +5972,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A194" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D163" sqref="D163"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J146" sqref="J146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
